--- a/biology/Botanique/Muscari_botryoides/Muscari_botryoides.xlsx
+++ b/biology/Botanique/Muscari_botryoides/Muscari_botryoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscari botryoides, de noms vernaculaires Muscari faux-botryde, Muscari botryoïde ou Muscari en grappe, est une espèce de plantes vivace de la famille des Asparagaceae et du genre Muscari.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace, glabre, de 10 à 30 cm de hauteur, à bulbe petit, plus ou moins conique et prolifère. La plante possède 2 à 4 feuilles basilaires dressées, généralement plus courtes que la tige fleurie, de 3 à 7 mm de largeur et plus large vers le sommet, glauques, presque planes ou un peu en gouttière[1].
-Appareil reproducteur
-Les fleurs d'un bleu clair à violacé, petites, sont presque inodores, disposées en une grappe ovoïde compacte de 4 à 6 cm de hauteur ; le périanthe globuleux est long de 3 à 4 mm ; les pédicelles sont penchés après la floraison, plus courts que les fleurs. Le fruit est une capsule s'ouvrant par trois valves arrondies ; les graines sont striées et rugueuses. La floraison a lieu de avril à mai[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace, glabre, de 10 à 30 cm de hauteur, à bulbe petit, plus ou moins conique et prolifère. La plante possède 2 à 4 feuilles basilaires dressées, généralement plus courtes que la tige fleurie, de 3 à 7 mm de largeur et plus large vers le sommet, glauques, presque planes ou un peu en gouttière.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscari en grappe pousse dans les pelouses ou les prairies sèches sur calcaire, dans les cultures de céréales, les vignes, mais aussi dans les friches et les bois clairs ; elle peut pousser jusqu'à 1700 m d'altitude[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs d'un bleu clair à violacé, petites, sont presque inodores, disposées en une grappe ovoïde compacte de 4 à 6 cm de hauteur ; le périanthe globuleux est long de 3 à 4 mm ; les pédicelles sont penchés après la floraison, plus courts que les fleurs. Le fruit est une capsule s'ouvrant par trois valves arrondies ; les graines sont striées et rugueuses. La floraison a lieu de avril à mai.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce surtout eurasiatique et continentale, présente en Europe centrale et orientale depuis la France jusqu'en Russie et en Arménie, en Asie centrale, en Asie Mineure ; elle est aussi présente au Maghreb.
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscari en grappe pousse dans les pelouses ou les prairies sèches sur calcaire, dans les cultures de céréales, les vignes, mais aussi dans les friches et les bois clairs ; elle peut pousser jusqu'à 1700 m d'altitude.
 </t>
         </is>
       </c>
@@ -604,19 +627,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce surtout eurasiatique et continentale, présente en Europe centrale et orientale depuis la France jusqu'en Russie et en Arménie, en Asie centrale, en Asie Mineure ; elle est aussi présente au Maghreb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscari_botryoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscari_botryoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Synonymes
-Botryanthus vulgaris Kunth, 1843
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Botryanthus vulgaris Kunth, 1843
 Botryphile botryoides (L.) Salisb., 1866
 Hyacinthus botryoides L., 1753
-Muscari racemosum subsp. botryoides (L.) Bonnier &amp; Layens, 1894[2]
-Sous-espèces
-Muscari botryoides (L.) Mill., 1768 subsp. botryoides
-Muscari botryoides subsp. lelievrei (Boreau) K.Richt., 1890[2]</t>
+Muscari racemosum subsp. botryoides (L.) Bonnier &amp; Layens, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscari_botryoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscari_botryoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Muscari botryoides (L.) Mill., 1768 subsp. botryoides
+Muscari botryoides subsp. lelievrei (Boreau) K.Richt., 1890</t>
         </is>
       </c>
     </row>
